--- a/files/samples/CLASS 1-4 NS-2.xlsx
+++ b/files/samples/CLASS 1-4 NS-2.xlsx
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8+G8</f>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
         <v>45</v>
       </c>
       <c r="I8" s="7"/>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C9:G9,"&lt;&gt;#AB")</f>
         <v>51</v>
       </c>
       <c r="I9" s="7"/>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H10:H56" si="0">SUMIF(C10:G10,"&lt;&gt;#AB")</f>
         <v>44</v>
       </c>
       <c r="I10" s="7"/>

--- a/files/samples/CLASS 1-4 NS-2.xlsx
+++ b/files/samples/CLASS 1-4 NS-2.xlsx
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
